--- a/output/fit_clients/fit_round_153.xlsx
+++ b/output/fit_clients/fit_round_153.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2193434533.759042</v>
+        <v>1921761270.102172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1070448305387472</v>
+        <v>0.09568714154002257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04521235981380023</v>
+        <v>0.02755522021550276</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1096717288.527818</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2510810590.333371</v>
+        <v>1761831049.385724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1163902674976378</v>
+        <v>0.1674676084864732</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03545937652580746</v>
+        <v>0.0421204129229172</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1255405414.298818</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4860768535.583632</v>
+        <v>3611653592.012866</v>
       </c>
       <c r="F4" t="n">
-        <v>0.142985783603773</v>
+        <v>0.1608147309154102</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03501797837869068</v>
+        <v>0.0288300621574786</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2430384342.909823</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3445241048.508921</v>
+        <v>3543166114.946146</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1028511649943728</v>
+        <v>0.1059314240563861</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04779044497327325</v>
+        <v>0.04791902554577954</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>63</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1722620564.584917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2819486013.334174</v>
+        <v>2279873463.324176</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09940817329138635</v>
+        <v>0.09350142684017849</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0468706853591345</v>
+        <v>0.04091402446534555</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1409742947.538585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2916493604.840246</v>
+        <v>2222272845.874393</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07772155512523866</v>
+        <v>0.09307965708887349</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03951962537834482</v>
+        <v>0.03022392357011782</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>44</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1458246775.284356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3574642983.655588</v>
+        <v>3633730033.269703</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1346284478830153</v>
+        <v>0.1877946748824912</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02410660001439758</v>
+        <v>0.02502599232650918</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>49</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1787321608.04948</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1969355943.445223</v>
+        <v>1809928757.725832</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1609122720203666</v>
+        <v>0.1845611787448105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02947082803615776</v>
+        <v>0.02705506397638074</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>984678002.5301192</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5540983855.009237</v>
+        <v>4253799082.305645</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2102636947888455</v>
+        <v>0.1449370222614052</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04067722944375923</v>
+        <v>0.04785677594199423</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>64</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2770492068.650636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3939968277.155925</v>
+        <v>3957088453.630587</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1597830355148115</v>
+        <v>0.1889365406744791</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04603721057904992</v>
+        <v>0.03483237692475723</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>63</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1969984147.023389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2486121413.783027</v>
+        <v>2466380199.648159</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1759344447597186</v>
+        <v>0.1704870757777886</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04823158333575771</v>
+        <v>0.03542114141311194</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>53</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1243060677.79388</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3319228356.667428</v>
+        <v>4234303383.766278</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08551139698422895</v>
+        <v>0.08571021439045674</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02435728126052621</v>
+        <v>0.02640246928108476</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>51</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1659614267.80155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2478969520.040939</v>
+        <v>3121775342.049765</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1371669866711784</v>
+        <v>0.1697951280236336</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0313619262468379</v>
+        <v>0.04285357783248357</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>49</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1239484832.154618</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1343167416.090205</v>
+        <v>1841922941.644967</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08611802021813808</v>
+        <v>0.1063006362982551</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0359410354189452</v>
+        <v>0.03409401352897393</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>671583757.951746</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2185857991.955354</v>
+        <v>2655083783.72498</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09807780850680436</v>
+        <v>0.09747554667665184</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03647626167404749</v>
+        <v>0.04923287226359228</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>23</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1092929054.824889</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4548230592.906006</v>
+        <v>4641746222.820801</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1158115923194871</v>
+        <v>0.1664452208048355</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04521985512852964</v>
+        <v>0.05038356509837175</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>45</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2274115303.86887</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2608878720.170182</v>
+        <v>3253557820.918279</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1843726109943717</v>
+        <v>0.1314500819362925</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02932694070912903</v>
+        <v>0.02555871008784343</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>50</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1304439418.598814</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>989642417.2267962</v>
+        <v>954432909.6692693</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1355583230983431</v>
+        <v>0.1620168794614779</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02284609407455136</v>
+        <v>0.02516524590746821</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>494821235.2971349</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2812447645.148005</v>
+        <v>2593482544.617971</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1614843598519314</v>
+        <v>0.1585308027444651</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03193100392808974</v>
+        <v>0.02892649962622133</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>24</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1406223762.35162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1899727769.440223</v>
+        <v>2167440413.633988</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07129629595058276</v>
+        <v>0.07952954954365669</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03239103281156078</v>
+        <v>0.03902875192344216</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>949863930.2213616</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2452716668.467955</v>
+        <v>2685402246.325201</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1266689479136602</v>
+        <v>0.1222111891495355</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04636521485571905</v>
+        <v>0.04929630592770141</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>43</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1226358428.498502</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1010607296.999457</v>
+        <v>1499761545.283531</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1730019663743521</v>
+        <v>0.1165469933862494</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04008910224572836</v>
+        <v>0.04196736646765249</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>505303716.8624855</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4016101498.111855</v>
+        <v>3315691769.236554</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1004349912748193</v>
+        <v>0.1014015381035803</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02745577537402307</v>
+        <v>0.03127514167461821</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>44</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2008050715.931194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1397262113.628907</v>
+        <v>1415799190.307371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1069835093794138</v>
+        <v>0.1048971320271569</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01861604583711844</v>
+        <v>0.03033637958023079</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>698631029.3662722</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1447042913.361587</v>
+        <v>968287224.415405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09032433353904377</v>
+        <v>0.1078371334149663</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02411144505413283</v>
+        <v>0.03556556066483703</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>723521538.1298488</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3245865216.94726</v>
+        <v>4591148061.169597</v>
       </c>
       <c r="F27" t="n">
-        <v>0.101928745157143</v>
+        <v>0.1209945018716576</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02360697411045759</v>
+        <v>0.02323576188026639</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>36</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1622932656.044462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2988562707.060853</v>
+        <v>2809003707.974298</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1151306977285362</v>
+        <v>0.09552288386749495</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0390399109345384</v>
+        <v>0.04482299335015012</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>49</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1494281363.714237</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5124450843.036942</v>
+        <v>4307978318.608372</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1358176850726791</v>
+        <v>0.1060397564024578</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04310126272590693</v>
+        <v>0.03136608045838566</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>70</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2562225360.399306</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2164616882.235067</v>
+        <v>1822643517.415671</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09512338157719311</v>
+        <v>0.1144476916377545</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03603351799572429</v>
+        <v>0.03233185603923729</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1082308497.273473</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1173840550.507005</v>
+        <v>1257661504.02494</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1067282875235856</v>
+        <v>0.0981249367542309</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03285595614668452</v>
+        <v>0.03728265700654938</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>586920232.8291919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1770822821.168756</v>
+        <v>1456956591.763464</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08271868086136287</v>
+        <v>0.1025657513010137</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03814956636942538</v>
+        <v>0.02624757635891843</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>885411535.0034575</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1891015984.079096</v>
+        <v>2645999388.829706</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1453681081243774</v>
+        <v>0.1346351276986024</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06037027961085635</v>
+        <v>0.05249508768507979</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>46</v>
-      </c>
-      <c r="J33" t="n">
-        <v>945508082.064729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1065742292.359429</v>
+        <v>1175383964.513773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08566981703549835</v>
+        <v>0.1138077148917306</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01752677716321305</v>
+        <v>0.02721809406268015</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>532871173.2613931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1282656707.685982</v>
+        <v>993861532.3932635</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1007388047704127</v>
+        <v>0.09461764062012068</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04033484028369453</v>
+        <v>0.03854736835731493</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>641328310.3915412</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2866255165.597023</v>
+        <v>2266403279.775482</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1321967508889806</v>
+        <v>0.1665656222838367</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0206425627226989</v>
+        <v>0.02321748572072483</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>39</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1433127575.393729</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2623346254.45531</v>
+        <v>2592889070.263393</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1045771634643116</v>
+        <v>0.09520368160968928</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04131578614832059</v>
+        <v>0.02569700181538481</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>41</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1311673240.249499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1966150601.452838</v>
+        <v>2080957089.522652</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08615478959167773</v>
+        <v>0.1151387494676212</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02502666909556853</v>
+        <v>0.0364881434941836</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>983075284.1009651</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1420682405.930996</v>
+        <v>1440819148.246025</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1635012788170839</v>
+        <v>0.1314750730920102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02224078464886556</v>
+        <v>0.0298120057671866</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>710341285.4034127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1214265963.371642</v>
+        <v>1273179938.882308</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1425204330489486</v>
+        <v>0.11191067226728</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04319919586770607</v>
+        <v>0.0425937806104492</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>607133019.3718454</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2007178425.725196</v>
+        <v>2537337003.178923</v>
       </c>
       <c r="F41" t="n">
-        <v>0.107949098208208</v>
+        <v>0.1312649632123052</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03625048208019927</v>
+        <v>0.02950168223352439</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>37</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1003589286.328666</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2885212909.32331</v>
+        <v>2935327653.232264</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08287548963646635</v>
+        <v>0.08037134862927382</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03550606272461264</v>
+        <v>0.03009979696157407</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>51</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1442606407.163716</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2555887411.727551</v>
+        <v>2456897775.373305</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1694642179798481</v>
+        <v>0.1813219764013637</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02175327954268836</v>
+        <v>0.02275175794914019</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>53</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1277943748.883165</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1596817546.687852</v>
+        <v>1877336711.494193</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08581703473251176</v>
+        <v>0.09470723010734322</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02498718581865058</v>
+        <v>0.02380136592348471</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>798408799.1962725</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1864439945.415971</v>
+        <v>2019842222.685846</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1448388919123543</v>
+        <v>0.1813240949596362</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04523396388953074</v>
+        <v>0.03411956786912002</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>932219949.8819752</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4107303386.88521</v>
+        <v>4160741036.72546</v>
       </c>
       <c r="F46" t="n">
-        <v>0.122583383929718</v>
+        <v>0.1672359943071203</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05603350101553664</v>
+        <v>0.06138446526107215</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>54</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2053651669.074761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3589244309.32319</v>
+        <v>4635254067.583106</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2001576151970035</v>
+        <v>0.1625267877397124</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04521166875765727</v>
+        <v>0.05648461328143768</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>41</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1794622130.479636</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3289264629.007566</v>
+        <v>4526421219.616372</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07352222374658875</v>
+        <v>0.08953632386321977</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03157576526043214</v>
+        <v>0.02480288942679494</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>50</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1644632390.127563</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1330766646.253324</v>
+        <v>1942407801.79947</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1553789596733378</v>
+        <v>0.1509092133032454</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03294565852385398</v>
+        <v>0.03352933189828481</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>665383381.4271683</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3112310165.350647</v>
+        <v>3957143174.645988</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1709372676948321</v>
+        <v>0.1319395335994715</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04272527436141968</v>
+        <v>0.0361363081758718</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>52</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1556155134.496879</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1027767903.646389</v>
+        <v>1408995716.22164</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1623794700603531</v>
+        <v>0.1181730049949068</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0382139026812252</v>
+        <v>0.03644099441791646</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>513884031.2351021</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4639906795.234946</v>
+        <v>4057881240.3822</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1052652835373646</v>
+        <v>0.1198187157505985</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05189654808670836</v>
+        <v>0.05458433454875274</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>63</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2319953416.395386</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3006836055.246001</v>
+        <v>2904792615.331717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1313235431913267</v>
+        <v>0.2041442075340419</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03030497828626861</v>
+        <v>0.02182849903802988</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>44</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1503418059.575502</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3891628588.856662</v>
+        <v>4756463970.909151</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1211334825871238</v>
+        <v>0.1084263299049387</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04648939827265389</v>
+        <v>0.03338995907019936</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>49</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1945814349.954288</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4575497892.97617</v>
+        <v>3741344568.115301</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1437433213639059</v>
+        <v>0.202802727703967</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03012958386371655</v>
+        <v>0.02018491390124649</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2287748946.745702</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1358133024.3354</v>
+        <v>1469414555.596494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1571031520444552</v>
+        <v>0.1444795845064284</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04461698735003575</v>
+        <v>0.0399074414315221</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>679066575.3810463</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4058042136.9455</v>
+        <v>3711908100.251964</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1159638528634503</v>
+        <v>0.1602213262060956</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0241124515405785</v>
+        <v>0.01833802932416153</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>49</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2029021161.677756</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1445132075.895614</v>
+        <v>1835880657.687839</v>
       </c>
       <c r="F58" t="n">
-        <v>0.16033246837048</v>
+        <v>0.1886975138196237</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02871453849754546</v>
+        <v>0.03603508556475354</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>722566074.0535691</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3783414819.636578</v>
+        <v>4003689316.357276</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07909582972231913</v>
+        <v>0.07951636465217718</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04860384744174846</v>
+        <v>0.04168546550139997</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>44</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1891707396.151932</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3309306359.528063</v>
+        <v>2969916434.958139</v>
       </c>
       <c r="F60" t="n">
-        <v>0.133887785628448</v>
+        <v>0.1331415034658799</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02098534913633981</v>
+        <v>0.02120778643986961</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>48</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1654653282.51938</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2302410801.410107</v>
+        <v>2951011171.991025</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1541133209469996</v>
+        <v>0.1530034675920697</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03063938921262818</v>
+        <v>0.03281319232778352</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>54</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1151205446.919563</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1925204477.834765</v>
+        <v>1772117202.763355</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1345290070420276</v>
+        <v>0.1587077904068834</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03359874121413482</v>
+        <v>0.03916296266383951</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>962602285.6931906</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5082505519.672427</v>
+        <v>5259887043.307988</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09257127530082862</v>
+        <v>0.09592781703232418</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02882696132682804</v>
+        <v>0.03631913432457463</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>44</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2541252773.863559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3549257204.451747</v>
+        <v>5353603549.234321</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228899546080652</v>
+        <v>0.1726001151016758</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03420259426270382</v>
+        <v>0.03364167975147865</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>48</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1774628606.343834</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5158365915.774664</v>
+        <v>4104725066.074707</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1583794776963696</v>
+        <v>0.1288732048217351</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01983998571747972</v>
+        <v>0.02329156648043794</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>55</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2579182907.318343</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4060367138.284435</v>
+        <v>5142325778.303288</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09944723279791838</v>
+        <v>0.1322582909222703</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03820048576994431</v>
+        <v>0.04845139778748189</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>44</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2030183545.923461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2138269895.326368</v>
+        <v>3179430398.685004</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09115994401480126</v>
+        <v>0.1006595980770004</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03328697406245891</v>
+        <v>0.03155580141128641</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>49</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1069135038.839645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4327667917.068211</v>
+        <v>4303196237.935794</v>
       </c>
       <c r="F68" t="n">
-        <v>0.160194538100745</v>
+        <v>0.1356643765127472</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03192305390126894</v>
+        <v>0.04693343591065814</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>48</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2163833974.143818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1699990454.9592</v>
+        <v>2178704581.747989</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1625757370937776</v>
+        <v>0.1733415132517049</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05231709774347374</v>
+        <v>0.05657497786026802</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>849995193.6365399</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3059216769.888617</v>
+        <v>3525163844.545675</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08140412964622994</v>
+        <v>0.09870250979565169</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04556114222351183</v>
+        <v>0.04736838568482164</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>44</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1529608365.813917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5444822055.461843</v>
+        <v>4940758795.379437</v>
       </c>
       <c r="F71" t="n">
-        <v>0.180118458626288</v>
+        <v>0.1330504114689625</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0254326607653782</v>
+        <v>0.0294130035029765</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>56</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2722411166.633818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1732436676.292624</v>
+        <v>1848810665.477212</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07436195244333574</v>
+        <v>0.08182694125627021</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04317007963097161</v>
+        <v>0.0381597193789177</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>866218327.6268665</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2187466683.063779</v>
+        <v>3266453786.795747</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07879407458913279</v>
+        <v>0.06823302322953974</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04158923994400803</v>
+        <v>0.04381377510897618</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>58</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1093733411.88781</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3751387886.101295</v>
+        <v>3859571633.122326</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1181609611753661</v>
+        <v>0.1614631919780326</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02428648307256996</v>
+        <v>0.02762581887449208</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>52</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1875693943.469677</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2157711457.516983</v>
+        <v>2189311689.538558</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1385491756299154</v>
+        <v>0.1391421043506622</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03449878424096506</v>
+        <v>0.02695779919952164</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1078855678.090837</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4940933028.35485</v>
+        <v>5104933128.369158</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1086664003966257</v>
+        <v>0.1089697023697341</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02562050146864938</v>
+        <v>0.03025152478419923</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>33</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2470466538.328249</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1706453100.360818</v>
+        <v>1707377613.896808</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1248343481282497</v>
+        <v>0.1313895778229757</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02383885491109818</v>
+        <v>0.02790799537524274</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>853226568.297227</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3397575279.45879</v>
+        <v>4632805716.805728</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1073271842569497</v>
+        <v>0.09287892605345975</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03450369910568364</v>
+        <v>0.0352339655119156</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>53</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1698787648.508469</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1488905135.112089</v>
+        <v>1689234674.244593</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1496952322028485</v>
+        <v>0.1146418614950308</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02533525553618037</v>
+        <v>0.02973616247474662</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>744452599.8028932</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5187961037.224134</v>
+        <v>4487324211.473603</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08189862124968399</v>
+        <v>0.1037367241772119</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03736930931912469</v>
+        <v>0.02377838476565335</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>32</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2593980577.136672</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4265875999.843326</v>
+        <v>4780077727.914095</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1263435670163926</v>
+        <v>0.1087935916664284</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03260653772444948</v>
+        <v>0.03071452051000652</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>35</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2132937972.981983</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3504388002.623237</v>
+        <v>4985263712.586374</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1941565037076507</v>
+        <v>0.1750206420738642</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02746890476177759</v>
+        <v>0.02408672755015388</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>55</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1752194068.706881</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1791879565.943639</v>
+        <v>2126857429.197798</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1260890547236815</v>
+        <v>0.1397102804369429</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03067133728938683</v>
+        <v>0.04451182400871728</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>895939742.2955481</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1741680617.082409</v>
+        <v>2311248876.537978</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0968331530155563</v>
+        <v>0.08448336043014242</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04023196346438754</v>
+        <v>0.03832215441134453</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>870840351.3800027</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3053295810.314431</v>
+        <v>2819230960.920547</v>
       </c>
       <c r="F85" t="n">
-        <v>0.123155501572311</v>
+        <v>0.1171925644544956</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03903771878310821</v>
+        <v>0.04909618345045692</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>57</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1526647971.171205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2472319520.518078</v>
+        <v>2183045415.451097</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1135946709876087</v>
+        <v>0.1157870645923205</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01941987715028953</v>
+        <v>0.02375063712612804</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1236159853.537243</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1503957110.851608</v>
+        <v>1090777306.846522</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1220696997250647</v>
+        <v>0.1430555108363102</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02741050388376913</v>
+        <v>0.04146546801875085</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>751978688.8835617</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3737385881.773667</v>
+        <v>2526386593.794607</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1512831628685947</v>
+        <v>0.1518130280625105</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02417378111931534</v>
+        <v>0.03442628589330181</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>60</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1868693044.158032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2591854778.447119</v>
+        <v>3283230507.895133</v>
       </c>
       <c r="F89" t="n">
-        <v>0.125444066917162</v>
+        <v>0.1158626155329794</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02810791494769382</v>
+        <v>0.03130176316496994</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>52</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1295927457.210065</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1494919708.134661</v>
+        <v>1548690261.962194</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1328218972643008</v>
+        <v>0.1130178265344903</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04265470072548703</v>
+        <v>0.05402267012349011</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>747459831.8311911</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2106944917.593898</v>
+        <v>2055891383.984072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1705056909480564</v>
+        <v>0.1893953308841185</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0609653671718401</v>
+        <v>0.04933891984931304</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1053472416.757285</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2421612446.955043</v>
+        <v>2363705605.918435</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07069475958893745</v>
+        <v>0.08016211518077308</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03693748565278383</v>
+        <v>0.03060226310921103</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>37</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1210806201.474872</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3616933527.701937</v>
+        <v>3843619335.812597</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1233851303146587</v>
+        <v>0.1076216259528706</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0410801819838373</v>
+        <v>0.04143518288146469</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>45</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1808466789.213976</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2340212120.029552</v>
+        <v>1560937630.210095</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1549734619048577</v>
+        <v>0.1021860227363068</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04307262882301836</v>
+        <v>0.03199555066436551</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1170106102.622149</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3071149780.097682</v>
+        <v>2403205371.096776</v>
       </c>
       <c r="F95" t="n">
-        <v>0.105611020830526</v>
+        <v>0.1245459232925515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04117234864027526</v>
+        <v>0.04838096746778221</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>37</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1535574884.567034</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1516106655.107632</v>
+        <v>2193009156.471131</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1294026200919166</v>
+        <v>0.1179495079757789</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03921413686036367</v>
+        <v>0.03456930173444373</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>758053366.1521844</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5233028956.81754</v>
+        <v>4593224608.138917</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1648113908133056</v>
+        <v>0.1218613627417812</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02029452632103395</v>
+        <v>0.01853387697030959</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>52</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2616514633.905268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3806450190.070332</v>
+        <v>3007993444.749232</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09710797951244593</v>
+        <v>0.1190703682806294</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02427388465150963</v>
+        <v>0.02327444063784927</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>40</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1903225134.370868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2981662912.387694</v>
+        <v>2674911398.07914</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1382745635849589</v>
+        <v>0.1451237011504804</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02505163321025059</v>
+        <v>0.02247747620185893</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>49</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1490831440.760501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4741987453.158481</v>
+        <v>3553203697.797174</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1477486962195095</v>
+        <v>0.153310441965324</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02052497851520383</v>
+        <v>0.023796554914479</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>47</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2370993856.445487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3290122845.189136</v>
+        <v>2707942292.38469</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1542953675210857</v>
+        <v>0.1884977835783223</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05196803510662724</v>
+        <v>0.05553756418056595</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>63</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1645061549.931706</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_153.xlsx
+++ b/output/fit_clients/fit_round_153.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1921761270.102172</v>
+        <v>1969644472.479935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09568714154002257</v>
+        <v>0.08568178476140781</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02755522021550276</v>
+        <v>0.03541811283641172</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1761831049.385724</v>
+        <v>2568244657.107549</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1674676084864732</v>
+        <v>0.1176222586705717</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0421204129229172</v>
+        <v>0.04420978235645551</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3611653592.012866</v>
+        <v>4193981016.642591</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1608147309154102</v>
+        <v>0.1110192739346383</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0288300621574786</v>
+        <v>0.03433325469561493</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543166114.946146</v>
+        <v>3799030466.441912</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1059314240563861</v>
+        <v>0.07758017831048866</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04791902554577954</v>
+        <v>0.04061715427112299</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2279873463.324176</v>
+        <v>2693597510.824255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09350142684017849</v>
+        <v>0.1112925942666261</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04091402446534555</v>
+        <v>0.04366975469829767</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2222272845.874393</v>
+        <v>2800392038.297796</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09307965708887349</v>
+        <v>0.06188942755592721</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03022392357011782</v>
+        <v>0.03575958930172908</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3633730033.269703</v>
+        <v>2919777231.675324</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1877946748824912</v>
+        <v>0.1654091569137905</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02502599232650918</v>
+        <v>0.02165453712725823</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1809928757.725832</v>
+        <v>2076677356.24371</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1845611787448105</v>
+        <v>0.1679773926243593</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02705506397638074</v>
+        <v>0.03493639100759328</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4253799082.305645</v>
+        <v>4577714400.549104</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1449370222614052</v>
+        <v>0.183836887603797</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04785677594199423</v>
+        <v>0.03848911520247546</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3957088453.630587</v>
+        <v>3909406162.387184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1889365406744791</v>
+        <v>0.1662398701572958</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03483237692475723</v>
+        <v>0.04037086493183074</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2466380199.648159</v>
+        <v>3309566787.263764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1704870757777886</v>
+        <v>0.1543706169482885</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03542114141311194</v>
+        <v>0.0508099227966862</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4234303383.766278</v>
+        <v>4279243602.774053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08571021439045674</v>
+        <v>0.08031623003902963</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02640246928108476</v>
+        <v>0.01911379370552414</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3121775342.049765</v>
+        <v>2658007563.811289</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1697951280236336</v>
+        <v>0.1790565527455028</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04285357783248357</v>
+        <v>0.03503586300375894</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1841922941.644967</v>
+        <v>1367032564.209455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1063006362982551</v>
+        <v>0.0743114303216698</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03409401352897393</v>
+        <v>0.03792505163769728</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2655083783.72498</v>
+        <v>2225974170.98115</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09747554667665184</v>
+        <v>0.07107975686701799</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04923287226359228</v>
+        <v>0.04003473861685797</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4641746222.820801</v>
+        <v>3741430863.340457</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1664452208048355</v>
+        <v>0.163836337290425</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05038356509837175</v>
+        <v>0.03707736664595946</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3253557820.918279</v>
+        <v>2765768129.113029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1314500819362925</v>
+        <v>0.1425161831399501</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02555871008784343</v>
+        <v>0.02486298263649007</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>954432909.6692693</v>
+        <v>894054758.5490856</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1620168794614779</v>
+        <v>0.1473913064446982</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02516524590746821</v>
+        <v>0.01854233848129578</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2593482544.617971</v>
+        <v>1987604420.906808</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1585308027444651</v>
+        <v>0.1198526662828047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02892649962622133</v>
+        <v>0.02978031339420453</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2167440413.633988</v>
+        <v>1645550472.701159</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07952954954365669</v>
+        <v>0.06973924440562365</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03902875192344216</v>
+        <v>0.0295380575181174</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2685402246.325201</v>
+        <v>2693938406.126088</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1222111891495355</v>
+        <v>0.09458453056407977</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04929630592770141</v>
+        <v>0.05529745567490438</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1499761545.283531</v>
+        <v>1192592272.967367</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1165469933862494</v>
+        <v>0.1644563968587258</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04196736646765249</v>
+        <v>0.04113882571870862</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3315691769.236554</v>
+        <v>3046810652.234244</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1014015381035803</v>
+        <v>0.1052921071144705</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03127514167461821</v>
+        <v>0.03356608299367658</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1415799190.307371</v>
+        <v>1411636336.887403</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1048971320271569</v>
+        <v>0.08310012546267179</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03033637958023079</v>
+        <v>0.02283645281424115</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>968287224.415405</v>
+        <v>1097335371.989326</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1078371334149663</v>
+        <v>0.105653682495768</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03556556066483703</v>
+        <v>0.03794327182979651</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4591148061.169597</v>
+        <v>4650914984.553177</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1209945018716576</v>
+        <v>0.1546172767469185</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02323576188026639</v>
+        <v>0.02569243667296646</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2809003707.974298</v>
+        <v>3191263446.718774</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09552288386749495</v>
+        <v>0.1250776835290948</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04482299335015012</v>
+        <v>0.03600228303281482</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4307978318.608372</v>
+        <v>5194155908.287168</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1060397564024578</v>
+        <v>0.1078043518563403</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03136608045838566</v>
+        <v>0.04089308213779699</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1822643517.415671</v>
+        <v>2358587072.611001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1144476916377545</v>
+        <v>0.1344439600210135</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03233185603923729</v>
+        <v>0.03995069027564772</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,16 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1257661504.02494</v>
+        <v>1118696033.028465</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0981249367542309</v>
+        <v>0.06793862858764495</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03728265700654938</v>
+        <v>0.04256234248023651</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1456956591.763464</v>
+        <v>1455948266.236238</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1025657513010137</v>
+        <v>0.1045964596480902</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02624757635891843</v>
+        <v>0.02845645124403556</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2645999388.829706</v>
+        <v>2069822699.58987</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1346351276986024</v>
+        <v>0.1755892768240924</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05249508768507979</v>
+        <v>0.04838245761325391</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1175383964.513773</v>
+        <v>1379317641.485117</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1138077148917306</v>
+        <v>0.09781171387747853</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02721809406268015</v>
+        <v>0.02559513582136515</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>993861532.3932635</v>
+        <v>1202724488.05759</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09461764062012068</v>
+        <v>0.09095608967730427</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03854736835731493</v>
+        <v>0.0360737749547014</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2266403279.775482</v>
+        <v>1959398798.773839</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1665656222838367</v>
+        <v>0.1453129105089446</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02321748572072483</v>
+        <v>0.02872084319574435</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2592889070.263393</v>
+        <v>2213627197.192336</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09520368160968928</v>
+        <v>0.08090052799638051</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02569700181538481</v>
+        <v>0.03770438022348967</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2080957089.522652</v>
+        <v>2020169483.081866</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1151387494676212</v>
+        <v>0.07839533417344761</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0364881434941836</v>
+        <v>0.03628732577139677</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1440819148.246025</v>
+        <v>2175095657.184294</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1314750730920102</v>
+        <v>0.1202831684488311</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0298120057671866</v>
+        <v>0.03255863442101205</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1273179938.882308</v>
+        <v>1552658844.073867</v>
       </c>
       <c r="F40" t="n">
-        <v>0.11191067226728</v>
+        <v>0.1526652047221193</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0425937806104492</v>
+        <v>0.05627680042515562</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2537337003.178923</v>
+        <v>2781775719.091497</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1312649632123052</v>
+        <v>0.1070170346874529</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02950168223352439</v>
+        <v>0.04274086706732001</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2935327653.232264</v>
+        <v>4135170895.705803</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08037134862927382</v>
+        <v>0.08403027851736319</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03009979696157407</v>
+        <v>0.03977019872345518</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2456897775.373305</v>
+        <v>2733946015.702381</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1813219764013637</v>
+        <v>0.1654371434096225</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02275175794914019</v>
+        <v>0.02568299371558062</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1877336711.494193</v>
+        <v>1737062173.700166</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09470723010734322</v>
+        <v>0.09682940952330692</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02380136592348471</v>
+        <v>0.02531141142277441</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2019842222.685846</v>
+        <v>2130001362.569074</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1813240949596362</v>
+        <v>0.1230940494280681</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03411956786912002</v>
+        <v>0.04970859378646748</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4160741036.72546</v>
+        <v>4869951531.13429</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1672359943071203</v>
+        <v>0.1353570024219169</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06138446526107215</v>
+        <v>0.04122945059494593</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4635254067.583106</v>
+        <v>3453934894.693463</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1625267877397124</v>
+        <v>0.1921435758412571</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05648461328143768</v>
+        <v>0.03759616183262563</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4526421219.616372</v>
+        <v>3904995176.947319</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08953632386321977</v>
+        <v>0.09594543158522774</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02480288942679494</v>
+        <v>0.03414749713832695</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1942407801.79947</v>
+        <v>1825213563.478322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1509092133032454</v>
+        <v>0.1587164819776521</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03352933189828481</v>
+        <v>0.04353349467747656</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3957143174.645988</v>
+        <v>2918604554.685303</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1319395335994715</v>
+        <v>0.155529134243364</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0361363081758718</v>
+        <v>0.04908122320328522</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1408995716.22164</v>
+        <v>1425189495.921153</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1181730049949068</v>
+        <v>0.184974003772481</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03644099441791646</v>
+        <v>0.04400846814373444</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4057881240.3822</v>
+        <v>3332782854.654142</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1198187157505985</v>
+        <v>0.1094761533531314</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05458433454875274</v>
+        <v>0.0581151811160312</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2904792615.331717</v>
+        <v>3395075938.783712</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2041442075340419</v>
+        <v>0.2004666183414031</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02182849903802988</v>
+        <v>0.03478522801257886</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4756463970.909151</v>
+        <v>4507892673.851125</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1084263299049387</v>
+        <v>0.1328364968391025</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03338995907019936</v>
+        <v>0.04463471677892299</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3741344568.115301</v>
+        <v>3216982011.333888</v>
       </c>
       <c r="F55" t="n">
-        <v>0.202802727703967</v>
+        <v>0.1931327413593618</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02018491390124649</v>
+        <v>0.02751747013261234</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1469414555.596494</v>
+        <v>1159269254.675874</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1444795845064284</v>
+        <v>0.1527515491848404</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0399074414315221</v>
+        <v>0.05397225311137396</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3711908100.251964</v>
+        <v>3120090733.556456</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1602213262060956</v>
+        <v>0.1662072363063127</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01833802932416153</v>
+        <v>0.01761100896365498</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1835880657.687839</v>
+        <v>1361256290.488672</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1886975138196237</v>
+        <v>0.2010981382991967</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03603508556475354</v>
+        <v>0.03854307738197206</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4003689316.357276</v>
+        <v>4770240462.845127</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07951636465217718</v>
+        <v>0.08054782929499216</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04168546550139997</v>
+        <v>0.0432022664124708</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2969916434.958139</v>
+        <v>2624819865.268038</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1331415034658799</v>
+        <v>0.1759827461648517</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02120778643986961</v>
+        <v>0.03332682358179927</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2951011171.991025</v>
+        <v>2916762947.411729</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1530034675920697</v>
+        <v>0.1511742652727716</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03281319232778352</v>
+        <v>0.01989889997092689</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1772117202.763355</v>
+        <v>1940946482.86671</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1587077904068834</v>
+        <v>0.1482420133228938</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03916296266383951</v>
+        <v>0.04787468999850344</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5259887043.307988</v>
+        <v>3907255134.967914</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09592781703232418</v>
+        <v>0.102121895235841</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03631913432457463</v>
+        <v>0.03799267923155493</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5353603549.234321</v>
+        <v>5335059887.190434</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1726001151016758</v>
+        <v>0.1773907958725913</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03364167975147865</v>
+        <v>0.02272758144706211</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4104725066.074707</v>
+        <v>5203020658.313233</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1288732048217351</v>
+        <v>0.1735168257908747</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02329156648043794</v>
+        <v>0.0302195169319289</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5142325778.303288</v>
+        <v>3504748043.160911</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1322582909222703</v>
+        <v>0.1232280758941443</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04845139778748189</v>
+        <v>0.03816248430713408</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3179430398.685004</v>
+        <v>2431898319.738172</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1006595980770004</v>
+        <v>0.1032854819009191</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03155580141128641</v>
+        <v>0.04075333225845418</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4303196237.935794</v>
+        <v>5728634633.896202</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356643765127472</v>
+        <v>0.1102005702310676</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04693343591065814</v>
+        <v>0.0340426962981911</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2178704581.747989</v>
+        <v>1789195037.076926</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1733415132517049</v>
+        <v>0.1564402895924473</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05657497786026802</v>
+        <v>0.05094447220740427</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3525163844.545675</v>
+        <v>3655392541.663447</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09870250979565169</v>
+        <v>0.09031035324895276</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04736838568482164</v>
+        <v>0.03913820991566123</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4940758795.379437</v>
+        <v>3596708254.286294</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1330504114689625</v>
+        <v>0.1692268307157015</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0294130035029765</v>
+        <v>0.0218435965695378</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1848810665.477212</v>
+        <v>1736418804.767936</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08182694125627021</v>
+        <v>0.103394829730449</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0381597193789177</v>
+        <v>0.04437890912967449</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3266453786.795747</v>
+        <v>3002730880.690307</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06823302322953974</v>
+        <v>0.08892235680299494</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04381377510897618</v>
+        <v>0.0320841831580612</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3859571633.122326</v>
+        <v>3935780305.212363</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1614631919780326</v>
+        <v>0.150133865355747</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02762581887449208</v>
+        <v>0.03463294256058049</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2189311689.538558</v>
+        <v>2244470987.169843</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1391421043506622</v>
+        <v>0.166181938943203</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02695779919952164</v>
+        <v>0.03221556899805447</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5104933128.369158</v>
+        <v>3982300183.545154</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1089697023697341</v>
+        <v>0.1056672111775883</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03025152478419923</v>
+        <v>0.02474522787461839</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1707377613.896808</v>
+        <v>1675157797.043704</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1313895778229757</v>
+        <v>0.1288946184154809</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02790799537524274</v>
+        <v>0.02193834117513044</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4632805716.805728</v>
+        <v>4255948597.202634</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09287892605345975</v>
+        <v>0.1047146886897996</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0352339655119156</v>
+        <v>0.0423415950894588</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1689234674.244593</v>
+        <v>1544245646.401316</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1146418614950308</v>
+        <v>0.1450594193008352</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02973616247474662</v>
+        <v>0.03318295366717518</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4487324211.473603</v>
+        <v>4595103229.33431</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1037367241772119</v>
+        <v>0.06984422867871434</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02377838476565335</v>
+        <v>0.03626631435285162</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4780077727.914095</v>
+        <v>5029326300.484542</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1087935916664284</v>
+        <v>0.09218176554337143</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03071452051000652</v>
+        <v>0.02441549887729068</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4985263712.586374</v>
+        <v>5397213378.605298</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1750206420738642</v>
+        <v>0.1925215868754897</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02408672755015388</v>
+        <v>0.02813513303642251</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2126857429.197798</v>
+        <v>1566001685.36751</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1397102804369429</v>
+        <v>0.1135446458066993</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04451182400871728</v>
+        <v>0.03423967268910082</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2311248876.537978</v>
+        <v>2340806209.189284</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08448336043014242</v>
+        <v>0.07716708590179329</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03832215441134453</v>
+        <v>0.04266895954143458</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2819230960.920547</v>
+        <v>2691706155.891188</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1171925644544956</v>
+        <v>0.1754464620211406</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04909618345045692</v>
+        <v>0.05247033416763091</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2183045415.451097</v>
+        <v>2605059133.326409</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1157870645923205</v>
+        <v>0.1128563087615477</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02375063712612804</v>
+        <v>0.02165395562339738</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1090777306.846522</v>
+        <v>1106845268.075231</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1430555108363102</v>
+        <v>0.1158421247891624</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04146546801875085</v>
+        <v>0.04345502264716815</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2526386593.794607</v>
+        <v>2737398821.350154</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1518130280625105</v>
+        <v>0.1296570029011559</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03442628589330181</v>
+        <v>0.03750065648579754</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3283230507.895133</v>
+        <v>3209366698.217882</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1158626155329794</v>
+        <v>0.1520644780986306</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03130176316496994</v>
+        <v>0.03667970872501975</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1548690261.962194</v>
+        <v>1609017192.445662</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1130178265344903</v>
+        <v>0.117638977739468</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05402267012349011</v>
+        <v>0.04930774191194705</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2055891383.984072</v>
+        <v>1901853883.459139</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1893953308841185</v>
+        <v>0.1185012212969056</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04933891984931304</v>
+        <v>0.052169257970523</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2363705605.918435</v>
+        <v>1995949988.519119</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08016211518077308</v>
+        <v>0.07669059757867819</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03060226310921103</v>
+        <v>0.04495895288861772</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3843619335.812597</v>
+        <v>4406850684.658909</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1076216259528706</v>
+        <v>0.1094889130576555</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04143518288146469</v>
+        <v>0.03315558568251507</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1560937630.210095</v>
+        <v>2392199066.255893</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1021860227363068</v>
+        <v>0.1127427829332222</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03199555066436551</v>
+        <v>0.03013973284539356</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2403205371.096776</v>
+        <v>2187311796.065946</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1245459232925515</v>
+        <v>0.1296184757887789</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04838096746778221</v>
+        <v>0.05002732854450546</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2193009156.471131</v>
+        <v>2382295123.826072</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1179495079757789</v>
+        <v>0.1295248836880316</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03456930173444373</v>
+        <v>0.0350557435423867</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4593224608.138917</v>
+        <v>3496324823.048658</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1218613627417812</v>
+        <v>0.1539520419984994</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01853387697030959</v>
+        <v>0.01950753522335257</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3007993444.749232</v>
+        <v>2986678873.93733</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1190703682806294</v>
+        <v>0.1243431880160973</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02327444063784927</v>
+        <v>0.03064463956037961</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2674911398.07914</v>
+        <v>3022977565.606292</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1451237011504804</v>
+        <v>0.1093746101247983</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02247747620185893</v>
+        <v>0.02996033479989544</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3553203697.797174</v>
+        <v>4751502083.085546</v>
       </c>
       <c r="F100" t="n">
-        <v>0.153310441965324</v>
+        <v>0.1586383616759205</v>
       </c>
       <c r="G100" t="n">
-        <v>0.023796554914479</v>
+        <v>0.02339812645676415</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2707942292.38469</v>
+        <v>3196972709.847831</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1884977835783223</v>
+        <v>0.1865333454533532</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05553756418056595</v>
+        <v>0.05451077109466548</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_153.xlsx
+++ b/output/fit_clients/fit_round_153.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1969644472.479935</v>
+        <v>2511002163.692453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08568178476140781</v>
+        <v>0.09423941022905812</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03541811283641172</v>
+        <v>0.02799462425329375</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2568244657.107549</v>
+        <v>2307906299.163463</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1176222586705717</v>
+        <v>0.1397031739577533</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04420978235645551</v>
+        <v>0.04606683082248641</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4193981016.642591</v>
+        <v>3564235350.189204</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1110192739346383</v>
+        <v>0.167012081419641</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03433325469561493</v>
+        <v>0.02452788486890017</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>86</v>
+      </c>
+      <c r="J4" t="n">
+        <v>153</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3799030466.441912</v>
+        <v>3409236433.708285</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07758017831048866</v>
+        <v>0.09519037081602064</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04061715427112299</v>
+        <v>0.04532819371093157</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>150</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2693597510.824255</v>
+        <v>1878578299.889167</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1112925942666261</v>
+        <v>0.111061436993784</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04366975469829767</v>
+        <v>0.05249026496124655</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2800392038.297796</v>
+        <v>2302318690.930398</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06188942755592721</v>
+        <v>0.09747078151365383</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03575958930172908</v>
+        <v>0.04482563720730703</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +705,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2919777231.675324</v>
+        <v>3077859627.16511</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1654091569137905</v>
+        <v>0.1465942970977704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02165453712725823</v>
+        <v>0.0214376067791853</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>152</v>
+      </c>
+      <c r="K8" t="n">
+        <v>94.61934416101845</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2076677356.24371</v>
+        <v>1666813891.109363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1679773926243593</v>
+        <v>0.1695893246523264</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03493639100759328</v>
+        <v>0.02983888749192063</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4577714400.549104</v>
+        <v>5816513758.993807</v>
       </c>
       <c r="F10" t="n">
-        <v>0.183836887603797</v>
+        <v>0.178514607955657</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03848911520247546</v>
+        <v>0.0527288026234027</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>140</v>
+      </c>
+      <c r="J10" t="n">
+        <v>153</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3909406162.387184</v>
+        <v>3054984342.106835</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1662398701572958</v>
+        <v>0.1341904927333713</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04037086493183074</v>
+        <v>0.03371535326214135</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3309566787.263764</v>
+        <v>3201326335.290662</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1543706169482885</v>
+        <v>0.1246849846537786</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0508099227966862</v>
+        <v>0.04188504597028798</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +888,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4279243602.774053</v>
+        <v>3712162290.715768</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08031623003902963</v>
+        <v>0.08030068071956688</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01911379370552414</v>
+        <v>0.02948215416974882</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>74</v>
+      </c>
+      <c r="J13" t="n">
+        <v>153</v>
+      </c>
+      <c r="K13" t="n">
+        <v>135.0716767506891</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +925,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2658007563.811289</v>
+        <v>2490741078.390791</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1790565527455028</v>
+        <v>0.1782403528046312</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03503586300375894</v>
+        <v>0.03953301015861319</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>28</v>
+      </c>
+      <c r="J14" t="n">
+        <v>151</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1367032564.209455</v>
+        <v>1821641191.577188</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0743114303216698</v>
+        <v>0.06704105766047062</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03792505163769728</v>
+        <v>0.03993222036834514</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2225974170.98115</v>
+        <v>2827237145.703072</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07107975686701799</v>
+        <v>0.07918403119298659</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04003473861685797</v>
+        <v>0.03151258359706624</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3741430863.340457</v>
+        <v>4278970078.813573</v>
       </c>
       <c r="F17" t="n">
-        <v>0.163836337290425</v>
+        <v>0.1133810121569575</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03707736664595946</v>
+        <v>0.04345535054073762</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>74</v>
+      </c>
+      <c r="J17" t="n">
+        <v>152</v>
+      </c>
+      <c r="K17" t="n">
+        <v>123.2744018925677</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2765768129.113029</v>
+        <v>3427763800.614838</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1425161831399501</v>
+        <v>0.1586194161022011</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02486298263649007</v>
+        <v>0.02118820225766165</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>37</v>
+      </c>
+      <c r="J18" t="n">
+        <v>153</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>894054758.5490856</v>
+        <v>944213262.4508538</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1473913064446982</v>
+        <v>0.1791693413574735</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01854233848129578</v>
+        <v>0.02529532266143794</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1987604420.906808</v>
+        <v>2311126011.952947</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1198526662828047</v>
+        <v>0.1440455293756889</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02978031339420453</v>
+        <v>0.02180004346575662</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1645550472.701159</v>
+        <v>2311971186.616224</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06973924440562365</v>
+        <v>0.07662633315244932</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0295380575181174</v>
+        <v>0.03702893443272694</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2693938406.126088</v>
+        <v>3835470085.408762</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09458453056407977</v>
+        <v>0.1413945613649399</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05529745567490438</v>
+        <v>0.03921605184723222</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>38</v>
+      </c>
+      <c r="J22" t="n">
+        <v>153</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1192592272.967367</v>
+        <v>1105418549.184953</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1644563968587258</v>
+        <v>0.128411648236727</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04113882571870862</v>
+        <v>0.04612507965596226</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3046810652.234244</v>
+        <v>3323190213.969457</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1052921071144705</v>
+        <v>0.1451414469237245</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03356608299367658</v>
+        <v>0.02988673425567588</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>151</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1411636336.887403</v>
+        <v>1024953241.417373</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08310012546267179</v>
+        <v>0.08797292030465982</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02283645281424115</v>
+        <v>0.02483511545282308</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1097335371.989326</v>
+        <v>1055953479.682489</v>
       </c>
       <c r="F26" t="n">
-        <v>0.105653682495768</v>
+        <v>0.0888796791459822</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03794327182979651</v>
+        <v>0.03595197910993482</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4650914984.553177</v>
+        <v>4094363743.010841</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1546172767469185</v>
+        <v>0.1550213766843826</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02569243667296646</v>
+        <v>0.02437663167869568</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>60</v>
+      </c>
+      <c r="J27" t="n">
+        <v>153</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3191263446.718774</v>
+        <v>3057446001.902308</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1250776835290948</v>
+        <v>0.1251970310335142</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03600228303281482</v>
+        <v>0.04637139660218322</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>30</v>
+      </c>
+      <c r="J28" t="n">
+        <v>140</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5194155908.287168</v>
+        <v>3678953933.927794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1078043518563403</v>
+        <v>0.1287534465314596</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04089308213779699</v>
+        <v>0.03459454704821179</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>142</v>
+      </c>
+      <c r="J29" t="n">
+        <v>153</v>
+      </c>
+      <c r="K29" t="n">
+        <v>157.6252389822579</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2358587072.611001</v>
+        <v>1746238264.455454</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1344439600210135</v>
+        <v>0.1186281625356287</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03995069027564772</v>
+        <v>0.02736144054452953</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1524,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1118696033.028465</v>
+        <v>1092277096.651077</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06793862858764495</v>
+        <v>0.09821306117071435</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04256234248023651</v>
+        <v>0.03383411550935344</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1455948266.236238</v>
+        <v>1571403570.685003</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1045964596480902</v>
+        <v>0.07367672459717503</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02845645124403556</v>
+        <v>0.0242435576936881</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2069822699.58987</v>
+        <v>3005618489.419812</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1755892768240924</v>
+        <v>0.1653709215704237</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04838245761325391</v>
+        <v>0.05798620188581757</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1379317641.485117</v>
+        <v>1574264703.905639</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09781171387747853</v>
+        <v>0.08617357546399494</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02559513582136515</v>
+        <v>0.02471233997591459</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1202724488.05759</v>
+        <v>924699884.1826831</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09095608967730427</v>
+        <v>0.1085168896027053</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0360737749547014</v>
+        <v>0.03865794658756426</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1959398798.773839</v>
+        <v>2954125842.945176</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1453129105089446</v>
+        <v>0.1605662457992931</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02872084319574435</v>
+        <v>0.02272219061118324</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2213627197.192336</v>
+        <v>2395103065.90796</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08090052799638051</v>
+        <v>0.07709150019770528</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03770438022348967</v>
+        <v>0.04187041182421131</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2020169483.081866</v>
+        <v>1693900520.051083</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07839533417344761</v>
+        <v>0.07610147822695662</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03628732577139677</v>
+        <v>0.03197034405753061</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1804,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2175095657.184294</v>
+        <v>1898113409.158578</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1202831684488311</v>
+        <v>0.1565241360709365</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03255863442101205</v>
+        <v>0.02380984964780978</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1552658844.073867</v>
+        <v>1659795234.762431</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1526652047221193</v>
+        <v>0.1129876352831013</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05627680042515562</v>
+        <v>0.04823075936999326</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2781775719.091497</v>
+        <v>2054270860.776333</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1070170346874529</v>
+        <v>0.1130994523136539</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04274086706732001</v>
+        <v>0.03055609873137061</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4135170895.705803</v>
+        <v>2674777321.950027</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08403027851736319</v>
+        <v>0.07754076396873551</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03977019872345518</v>
+        <v>0.03842563996724448</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>56</v>
+      </c>
+      <c r="J42" t="n">
+        <v>152</v>
+      </c>
+      <c r="K42" t="n">
+        <v>73.79767592922664</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2733946015.702381</v>
+        <v>2794331793.852689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1654371434096225</v>
+        <v>0.1311579084175121</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02568299371558062</v>
+        <v>0.02537318337655968</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1737062173.700166</v>
+        <v>1568438273.01356</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09682940952330692</v>
+        <v>0.0843868175431934</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02531141142277441</v>
+        <v>0.02264348610845175</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2130001362.569074</v>
+        <v>2391760610.51492</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1230940494280681</v>
+        <v>0.1223993713783307</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04970859378646748</v>
+        <v>0.03560761692249007</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4869951531.13429</v>
+        <v>5466021885.721361</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1353570024219169</v>
+        <v>0.1086297523811252</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04122945059494593</v>
+        <v>0.04788197402686448</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>86</v>
+      </c>
+      <c r="J46" t="n">
+        <v>153</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3453934894.693463</v>
+        <v>4890744483.765745</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1921435758412571</v>
+        <v>0.1346142177874235</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03759616183262563</v>
+        <v>0.04608067144186051</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>68</v>
+      </c>
+      <c r="J47" t="n">
+        <v>152</v>
+      </c>
+      <c r="K47" t="n">
+        <v>113.2310635166104</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3904995176.947319</v>
+        <v>4563430653.170959</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09594543158522774</v>
+        <v>0.06657282120179707</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03414749713832695</v>
+        <v>0.02857180128286803</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>67</v>
+      </c>
+      <c r="J48" t="n">
+        <v>153</v>
+      </c>
+      <c r="K48" t="n">
+        <v>140.3474184546095</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1825213563.478322</v>
+        <v>1801338485.843589</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1587164819776521</v>
+        <v>0.1462766677278682</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04353349467747656</v>
+        <v>0.03167066350464932</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2918604554.685303</v>
+        <v>3940561502.755857</v>
       </c>
       <c r="F50" t="n">
-        <v>0.155529134243364</v>
+        <v>0.1445456717293435</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04908122320328522</v>
+        <v>0.0405067528070271</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>50</v>
+      </c>
+      <c r="J50" t="n">
+        <v>153</v>
+      </c>
+      <c r="K50" t="n">
+        <v>137.1972178896611</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1425189495.921153</v>
+        <v>1256821519.73239</v>
       </c>
       <c r="F51" t="n">
-        <v>0.184974003772481</v>
+        <v>0.1752212665810489</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04400846814373444</v>
+        <v>0.05133991935886656</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3332782854.654142</v>
+        <v>4813086628.799058</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1094761533531314</v>
+        <v>0.08743680339803266</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0581151811160312</v>
+        <v>0.03818860267671645</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>112</v>
+      </c>
+      <c r="J52" t="n">
+        <v>153</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3395075938.783712</v>
+        <v>2683380223.923572</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2004666183414031</v>
+        <v>0.1808862538588902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03478522801257886</v>
+        <v>0.02165371176161819</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>20</v>
+      </c>
+      <c r="J53" t="n">
+        <v>151</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4507892673.851125</v>
+        <v>3452213808.568896</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1328364968391025</v>
+        <v>0.1095656647516629</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04463471677892299</v>
+        <v>0.04937598224759972</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>73</v>
+      </c>
+      <c r="J54" t="n">
+        <v>152</v>
+      </c>
+      <c r="K54" t="n">
+        <v>122.0508573798735</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3216982011.333888</v>
+        <v>4699736444.504596</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1931327413593618</v>
+        <v>0.1516329809058089</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02751747013261234</v>
+        <v>0.02665911150675793</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>70</v>
+      </c>
+      <c r="J55" t="n">
+        <v>152</v>
+      </c>
+      <c r="K55" t="n">
+        <v>130.504171325172</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1159269254.675874</v>
+        <v>1848872605.670749</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1527515491848404</v>
+        <v>0.1553859228496696</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05397225311137396</v>
+        <v>0.05807238685469378</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3120090733.556456</v>
+        <v>3307034885.965357</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1662072363063127</v>
+        <v>0.1153519471731078</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01761100896365498</v>
+        <v>0.02459860167967712</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>62</v>
+      </c>
+      <c r="J57" t="n">
+        <v>151</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1361256290.488672</v>
+        <v>1873184223.350491</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2010981382991967</v>
+        <v>0.1813293453506344</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03854307738197206</v>
+        <v>0.03340669072016787</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4770240462.845127</v>
+        <v>3465189553.644259</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08054782929499216</v>
+        <v>0.115004223653799</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0432022664124708</v>
+        <v>0.04217096490718063</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>74</v>
+      </c>
+      <c r="J59" t="n">
+        <v>153</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2624819865.268038</v>
+        <v>2992175309.043551</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1759827461648517</v>
+        <v>0.2063258575676692</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03332682358179927</v>
+        <v>0.02206489423538064</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>24</v>
+      </c>
+      <c r="J60" t="n">
+        <v>150</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2586,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2916762947.411729</v>
+        <v>2694439599.211637</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1511742652727716</v>
+        <v>0.1470801312003203</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01989889997092689</v>
+        <v>0.02755837155026207</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>4</v>
+      </c>
+      <c r="J61" t="n">
+        <v>146</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1940946482.86671</v>
+        <v>1497809239.242624</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1482420133228938</v>
+        <v>0.1932363411614899</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04787468999850344</v>
+        <v>0.03432056793923812</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3907255134.967914</v>
+        <v>3647913634.237394</v>
       </c>
       <c r="F63" t="n">
-        <v>0.102121895235841</v>
+        <v>0.07546273754290904</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03799267923155493</v>
+        <v>0.04559330002410757</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>75</v>
+      </c>
+      <c r="J63" t="n">
+        <v>152</v>
+      </c>
+      <c r="K63" t="n">
+        <v>122.3813153226087</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2693,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5335059887.190434</v>
+        <v>5475377855.511914</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1773907958725913</v>
+        <v>0.1635251059832203</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02272758144706211</v>
+        <v>0.02807730990654168</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>76</v>
+      </c>
+      <c r="J64" t="n">
+        <v>152</v>
+      </c>
+      <c r="K64" t="n">
+        <v>130.6083331704907</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5203020658.313233</v>
+        <v>5537281721.69524</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1735168257908747</v>
+        <v>0.1222333176779697</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0302195169319289</v>
+        <v>0.02093821129302571</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>126</v>
+      </c>
+      <c r="J65" t="n">
+        <v>153</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3504748043.160911</v>
+        <v>5575673845.094985</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1232280758941443</v>
+        <v>0.1199916774642026</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03816248430713408</v>
+        <v>0.04997290392031724</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>75</v>
+      </c>
+      <c r="J66" t="n">
+        <v>153</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2431898319.738172</v>
+        <v>2132422683.111747</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1032854819009191</v>
+        <v>0.09641117813626356</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04075333225845418</v>
+        <v>0.04519342260274815</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5728634633.896202</v>
+        <v>5262242239.29817</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1102005702310676</v>
+        <v>0.1379422354887537</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0340426962981911</v>
+        <v>0.04180252139752963</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>77</v>
+      </c>
+      <c r="J68" t="n">
+        <v>152</v>
+      </c>
+      <c r="K68" t="n">
+        <v>129.5155099934532</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1789195037.076926</v>
+        <v>1526021594.85463</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1564402895924473</v>
+        <v>0.1244346407926378</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05094447220740427</v>
+        <v>0.04442054175275107</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3655392541.663447</v>
+        <v>2413859033.255241</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09031035324895276</v>
+        <v>0.06958160534862642</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03913820991566123</v>
+        <v>0.04763197233970917</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>21</v>
+      </c>
+      <c r="J70" t="n">
+        <v>148</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3596708254.286294</v>
+        <v>3418807405.29312</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1692268307157015</v>
+        <v>0.1799874793119421</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0218435965695378</v>
+        <v>0.02666143194524269</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>121</v>
+      </c>
+      <c r="J71" t="n">
+        <v>152</v>
+      </c>
+      <c r="K71" t="n">
+        <v>118.1857833577886</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1736418804.767936</v>
+        <v>2105468429.858818</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103394829730449</v>
+        <v>0.07277769843351842</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04437890912967449</v>
+        <v>0.04932098912422554</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3002730880.690307</v>
+        <v>2877637673.621907</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08892235680299494</v>
+        <v>0.08511334080352427</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0320841831580612</v>
+        <v>0.05151094928998114</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3049,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3935780305.212363</v>
+        <v>3608142316.530303</v>
       </c>
       <c r="F74" t="n">
-        <v>0.150133865355747</v>
+        <v>0.1696807752250932</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03463294256058049</v>
+        <v>0.02638969930142316</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>46</v>
+      </c>
+      <c r="J74" t="n">
+        <v>153</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2244470987.169843</v>
+        <v>1622912128.003912</v>
       </c>
       <c r="F75" t="n">
-        <v>0.166181938943203</v>
+        <v>0.1129794477916898</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03221556899805447</v>
+        <v>0.02814574149377333</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3113,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3982300183.545154</v>
+        <v>5160618422.906766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1056672111775883</v>
+        <v>0.1155927531351981</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02474522787461839</v>
+        <v>0.02198719396813154</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>70</v>
+      </c>
+      <c r="J76" t="n">
+        <v>152</v>
+      </c>
+      <c r="K76" t="n">
+        <v>113.0750792012244</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1675157797.043704</v>
+        <v>1725353520.783309</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1288946184154809</v>
+        <v>0.1602964717848344</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02193834117513044</v>
+        <v>0.027574426909168</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4255948597.202634</v>
+        <v>3067175587.045719</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1047146886897996</v>
+        <v>0.1233868549692572</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0423415950894588</v>
+        <v>0.04599760452909767</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>77</v>
+      </c>
+      <c r="J78" t="n">
+        <v>152</v>
+      </c>
+      <c r="K78" t="n">
+        <v>96.73208295699114</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1544245646.401316</v>
+        <v>1920724696.653853</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1450594193008352</v>
+        <v>0.1697341013799212</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03318295366717518</v>
+        <v>0.02859589696688431</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4595103229.33431</v>
+        <v>4657822924.213036</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06984422867871434</v>
+        <v>0.1101081384277978</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03626631435285162</v>
+        <v>0.02845063157317922</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>74</v>
+      </c>
+      <c r="J80" t="n">
+        <v>153</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5029326300.484542</v>
+        <v>4141528961.125476</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09218176554337143</v>
+        <v>0.08800047560822644</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02441549887729068</v>
+        <v>0.02660312041484664</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>70</v>
+      </c>
+      <c r="J81" t="n">
+        <v>152</v>
+      </c>
+      <c r="K81" t="n">
+        <v>119.0369068140724</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5397213378.605298</v>
+        <v>3684345610.890406</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1925215868754897</v>
+        <v>0.1715207711795973</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02813513303642251</v>
+        <v>0.01956878379031639</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>111</v>
+      </c>
+      <c r="J82" t="n">
+        <v>153</v>
+      </c>
+      <c r="K82" t="n">
+        <v>144.2284900419482</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1566001685.36751</v>
+        <v>2006244126.42847</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1135446458066993</v>
+        <v>0.135796328299315</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03423967268910082</v>
+        <v>0.02778505676134102</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2340806209.189284</v>
+        <v>1582465281.638768</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07716708590179329</v>
+        <v>0.1158369547206091</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04266895954143458</v>
+        <v>0.03668578092575913</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2691706155.891188</v>
+        <v>3005609533.542689</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1754464620211406</v>
+        <v>0.1349840660885818</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05247033416763091</v>
+        <v>0.04227830261118165</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>24</v>
+      </c>
+      <c r="J85" t="n">
+        <v>143</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2605059133.326409</v>
+        <v>2775457029.955353</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1128563087615477</v>
+        <v>0.1067158109655719</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02165395562339738</v>
+        <v>0.02643176808139035</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1106845268.075231</v>
+        <v>1194071961.044565</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1158421247891624</v>
+        <v>0.1349627697775732</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04345502264716815</v>
+        <v>0.03147113762511555</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2737398821.350154</v>
+        <v>3667664454.176842</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1296570029011559</v>
+        <v>0.1447042456967398</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03750065648579754</v>
+        <v>0.03140613146807436</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>21</v>
+      </c>
+      <c r="J88" t="n">
+        <v>153</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3209366698.217882</v>
+        <v>3470576857.52141</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1520644780986306</v>
+        <v>0.1560777391410012</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03667970872501975</v>
+        <v>0.03894451577398265</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="n">
+        <v>125.8676679797838</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1609017192.445662</v>
+        <v>2135539238.525509</v>
       </c>
       <c r="F90" t="n">
-        <v>0.117638977739468</v>
+        <v>0.1172616243201881</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04930774191194705</v>
+        <v>0.04002875294823405</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1901853883.459139</v>
+        <v>1596567530.559202</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1185012212969056</v>
+        <v>0.14066092671998</v>
       </c>
       <c r="G91" t="n">
-        <v>0.052169257970523</v>
+        <v>0.04719278398480781</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1995949988.519119</v>
+        <v>2467668855.430901</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07669059757867819</v>
+        <v>0.08096512257401935</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04495895288861772</v>
+        <v>0.03840220512190647</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4406850684.658909</v>
+        <v>3886792633.857205</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094889130576555</v>
+        <v>0.1098823941398977</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03315558568251507</v>
+        <v>0.04882233223891276</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>69</v>
+      </c>
+      <c r="J93" t="n">
+        <v>152</v>
+      </c>
+      <c r="K93" t="n">
+        <v>130.9433571069846</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2392199066.255893</v>
+        <v>1826181509.288946</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1127427829332222</v>
+        <v>0.1225733399982517</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03013973284539356</v>
+        <v>0.03429081179626949</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2187311796.065946</v>
+        <v>2185796768.198571</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1296184757887789</v>
+        <v>0.105598965473404</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05002732854450546</v>
+        <v>0.04249641721666426</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2382295123.826072</v>
+        <v>1773646601.420724</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1295248836880316</v>
+        <v>0.1124252746195649</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0350557435423867</v>
+        <v>0.03195675301099975</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3496324823.048658</v>
+        <v>4842447077.805783</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1539520419984994</v>
+        <v>0.1076193739072035</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01950753522335257</v>
+        <v>0.02429792224324863</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>73</v>
+      </c>
+      <c r="J97" t="n">
+        <v>153</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2986678873.93733</v>
+        <v>2667564324.167949</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1243431880160973</v>
+        <v>0.1187118819892277</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03064463956037961</v>
+        <v>0.02908177893982682</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>36</v>
+      </c>
+      <c r="J98" t="n">
+        <v>150</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3022977565.606292</v>
+        <v>3423576126.791552</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1093746101247983</v>
+        <v>0.1231762637158973</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02996033479989544</v>
+        <v>0.03189587475340423</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4751502083.085546</v>
+        <v>3726825968.287362</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1586383616759205</v>
+        <v>0.1645021589361754</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02339812645676415</v>
+        <v>0.02752244705431918</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>63</v>
+      </c>
+      <c r="J100" t="n">
+        <v>153</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3196972709.847831</v>
+        <v>3247444686.938139</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1865333454533532</v>
+        <v>0.1614471332584795</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05451077109466548</v>
+        <v>0.0357949525509406</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>148</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
